--- a/Document/시스템 기획서/몬스터/DreamCatcher_레드 헷.xlsx
+++ b/Document/시스템 기획서/몬스터/DreamCatcher_레드 헷.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="120">
   <si>
     <t>드림 캐쳐(가명) 몬스터 문서</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -903,6 +903,14 @@
   </si>
   <si>
     <t>공격하기 얼마전에 범위 이펙트를 출력할지 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 방어 미션의 경우 정해진 범위밖에 플레이어가 있으면 꿈의 기둥을 추적함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 방어 미션의 경우 정해진 범위내에 플레이어가 있으면 플레이어를 추적함.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1324,6 +1332,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1331,12 +1345,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2864,8 +2872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M159"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124:G124"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2916,13 +2924,13 @@
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
     </row>
@@ -2930,13 +2938,13 @@
       <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
     </row>
@@ -2944,13 +2952,13 @@
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
     </row>
@@ -2969,12 +2977,12 @@
       <c r="B15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="10" t="s">
         <v>28</v>
       </c>
@@ -2991,12 +2999,12 @@
       <c r="B16" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="8">
         <v>10</v>
       </c>
@@ -3011,12 +3019,12 @@
       <c r="B17" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="8">
         <v>20</v>
       </c>
@@ -3031,12 +3039,12 @@
       <c r="B18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="8">
         <v>1</v>
       </c>
@@ -3051,12 +3059,12 @@
       <c r="B19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="8">
         <v>100</v>
       </c>
@@ -3071,12 +3079,12 @@
       <c r="B20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="8">
         <v>10</v>
       </c>
@@ -3091,12 +3099,12 @@
       <c r="B21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="8">
         <v>5</v>
       </c>
@@ -3111,12 +3119,12 @@
       <c r="B22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="8">
         <v>2</v>
       </c>
@@ -3131,12 +3139,12 @@
       <c r="B23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="8">
         <v>5</v>
       </c>
@@ -3151,12 +3159,12 @@
       <c r="B24" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="8">
         <v>7</v>
       </c>
@@ -3171,12 +3179,12 @@
       <c r="B25" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="30"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
       <c r="G25" s="27">
         <v>9</v>
       </c>
@@ -3275,6 +3283,16 @@
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
@@ -3527,13 +3545,13 @@
       <c r="B79" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="32" t="s">
+      <c r="C79" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
       <c r="H79" s="10" t="s">
         <v>28</v>
       </c>
@@ -3548,13 +3566,13 @@
       <c r="B80" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C80" s="31" t="s">
+      <c r="C80" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
       <c r="H80" s="8">
         <v>5</v>
       </c>
@@ -3567,13 +3585,13 @@
       <c r="B81" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C81" s="31" t="s">
+      <c r="C81" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="31"/>
-      <c r="G81" s="31"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
       <c r="H81" s="8">
         <v>1</v>
       </c>
@@ -3586,13 +3604,13 @@
       <c r="B82" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C82" s="31" t="s">
+      <c r="C82" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
       <c r="H82" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -3869,13 +3887,13 @@
       <c r="B120" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C120" s="32" t="s">
+      <c r="C120" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D120" s="32"/>
-      <c r="E120" s="32"/>
-      <c r="F120" s="32"/>
-      <c r="G120" s="32"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="29"/>
       <c r="H120" s="10" t="s">
         <v>28</v>
       </c>
@@ -3890,13 +3908,13 @@
       <c r="B121" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C121" s="28" t="s">
+      <c r="C121" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D121" s="29"/>
-      <c r="E121" s="29"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="30"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="31"/>
+      <c r="G121" s="32"/>
       <c r="H121" s="8">
         <v>10</v>
       </c>
@@ -3909,13 +3927,13 @@
       <c r="B122" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C122" s="28" t="s">
+      <c r="C122" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D122" s="29"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="29"/>
-      <c r="G122" s="30"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="31"/>
+      <c r="F122" s="31"/>
+      <c r="G122" s="32"/>
       <c r="H122" s="8">
         <v>20</v>
       </c>
@@ -3928,13 +3946,13 @@
       <c r="B123" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C123" s="28" t="s">
+      <c r="C123" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D123" s="29"/>
-      <c r="E123" s="29"/>
-      <c r="F123" s="29"/>
-      <c r="G123" s="30"/>
+      <c r="D123" s="31"/>
+      <c r="E123" s="31"/>
+      <c r="F123" s="31"/>
+      <c r="G123" s="32"/>
       <c r="H123" s="8">
         <v>1</v>
       </c>
@@ -3947,13 +3965,13 @@
       <c r="B124" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C124" s="28" t="s">
+      <c r="C124" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D124" s="29"/>
-      <c r="E124" s="29"/>
-      <c r="F124" s="29"/>
-      <c r="G124" s="30"/>
+      <c r="D124" s="31"/>
+      <c r="E124" s="31"/>
+      <c r="F124" s="31"/>
+      <c r="G124" s="32"/>
       <c r="H124" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -3966,13 +3984,13 @@
       <c r="B125" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C125" s="31" t="s">
+      <c r="C125" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D125" s="31"/>
-      <c r="E125" s="31"/>
-      <c r="F125" s="31"/>
-      <c r="G125" s="31"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="28"/>
       <c r="H125" s="27">
         <v>9</v>
       </c>
@@ -4370,6 +4388,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C120:G120"/>
     <mergeCell ref="C125:G125"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C10:G10"/>
@@ -4386,14 +4412,6 @@
     <mergeCell ref="C124:G124"/>
     <mergeCell ref="C79:G79"/>
     <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C121:G121"/>
-    <mergeCell ref="C122:G122"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C120:G120"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/시스템 기획서/몬스터/DreamCatcher_레드 헷.xlsx
+++ b/Document/시스템 기획서/몬스터/DreamCatcher_레드 헷.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\시스템 기획서\몬스터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\시스템 기획서\몬스터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="122">
   <si>
     <t>드림 캐쳐(가명) 몬스터 문서</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -774,10 +774,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 총 모션 시간 2~2.5초 [애니메이터와 추가 협의 할것]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>흐름도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -911,6 +907,18 @@
   </si>
   <si>
     <t xml:space="preserve"> - 방어 미션의 경우 정해진 범위내에 플레이어가 있으면 플레이어를 추적함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 총 모션 시간 1.5초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 돌진 전조 시간 1초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 돌진 시간 0.5초</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1332,12 +1340,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1345,6 +1347,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1430,13 +1438,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>161923</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1905,13 +1913,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1962,13 +1970,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2018,13 +2026,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2072,13 +2080,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2129,13 +2137,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2186,13 +2194,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2242,13 +2250,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2296,13 +2304,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2779,7 +2787,7 @@
         <v>65</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -2858,7 +2866,7 @@
     </row>
     <row r="24" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B24" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2870,10 +2878,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M159"/>
+  <dimension ref="B2:M161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2924,13 +2932,13 @@
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
     </row>
@@ -2938,13 +2946,13 @@
       <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
     </row>
@@ -2952,13 +2960,13 @@
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
     </row>
@@ -2977,12 +2985,12 @@
       <c r="B15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="10" t="s">
         <v>28</v>
       </c>
@@ -2999,12 +3007,12 @@
       <c r="B16" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
       <c r="G16" s="8">
         <v>10</v>
       </c>
@@ -3017,14 +3025,14 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
       <c r="G17" s="8">
         <v>20</v>
       </c>
@@ -3039,12 +3047,12 @@
       <c r="B18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
       <c r="G18" s="8">
         <v>1</v>
       </c>
@@ -3059,12 +3067,12 @@
       <c r="B19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
       <c r="G19" s="8">
         <v>100</v>
       </c>
@@ -3079,12 +3087,12 @@
       <c r="B20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
       <c r="G20" s="8">
         <v>10</v>
       </c>
@@ -3099,12 +3107,12 @@
       <c r="B21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
       <c r="G21" s="8">
         <v>5</v>
       </c>
@@ -3119,12 +3127,12 @@
       <c r="B22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
       <c r="G22" s="8">
         <v>2</v>
       </c>
@@ -3139,12 +3147,12 @@
       <c r="B23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
       <c r="G23" s="8">
         <v>5</v>
       </c>
@@ -3159,12 +3167,12 @@
       <c r="B24" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
       <c r="G24" s="8">
         <v>7</v>
       </c>
@@ -3177,14 +3185,14 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
+      <c r="C25" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="30"/>
       <c r="G25" s="27">
         <v>9</v>
       </c>
@@ -3207,7 +3215,7 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
@@ -3227,7 +3235,7 @@
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
@@ -3247,22 +3255,22 @@
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
@@ -3277,22 +3285,22 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
@@ -3503,7 +3511,7 @@
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
@@ -3513,45 +3521,45 @@
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B75" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
       <c r="H79" s="10" t="s">
         <v>28</v>
       </c>
@@ -3566,13 +3574,13 @@
       <c r="B80" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C80" s="28" t="s">
+      <c r="C80" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
       <c r="H80" s="8">
         <v>5</v>
       </c>
@@ -3585,13 +3593,13 @@
       <c r="B81" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C81" s="28" t="s">
+      <c r="C81" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
       <c r="H81" s="8">
         <v>1</v>
       </c>
@@ -3602,15 +3610,15 @@
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C82" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
       <c r="H82" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -3825,7 +3833,7 @@
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.3">
@@ -3840,121 +3848,93 @@
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B116" s="25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B118" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B118" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B120" s="9" t="s">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B122" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C120" s="29" t="s">
+      <c r="C122" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D120" s="29"/>
-      <c r="E120" s="29"/>
-      <c r="F120" s="29"/>
-      <c r="G120" s="29"/>
-      <c r="H120" s="10" t="s">
+      <c r="D122" s="32"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="32"/>
+      <c r="G122" s="32"/>
+      <c r="H122" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I120" s="10" t="s">
+      <c r="I122" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J120" s="10" t="s">
+      <c r="J122" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B121" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C121" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D121" s="31"/>
-      <c r="E121" s="31"/>
-      <c r="F121" s="31"/>
-      <c r="G121" s="32"/>
-      <c r="H121" s="8">
-        <v>10</v>
-      </c>
-      <c r="I121" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J121" s="8"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B122" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C122" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D122" s="31"/>
-      <c r="E122" s="31"/>
-      <c r="F122" s="31"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="8">
-        <v>20</v>
-      </c>
-      <c r="I122" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J122" s="8"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C123" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D123" s="31"/>
-      <c r="E123" s="31"/>
-      <c r="F123" s="31"/>
-      <c r="G123" s="32"/>
+        <v>31</v>
+      </c>
+      <c r="C123" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="30"/>
       <c r="H123" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I123" s="8" t="s">
         <v>33</v>
@@ -3963,81 +3943,97 @@
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C124" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D124" s="31"/>
-      <c r="E124" s="31"/>
-      <c r="F124" s="31"/>
-      <c r="G124" s="32"/>
+        <v>32</v>
+      </c>
+      <c r="C124" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="30"/>
       <c r="H124" s="8">
+        <v>20</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J124" s="8"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B125" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C125" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D125" s="29"/>
+      <c r="E125" s="29"/>
+      <c r="F125" s="29"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="8">
+        <v>1</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J125" s="8"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B126" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C126" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D126" s="29"/>
+      <c r="E126" s="29"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="30"/>
+      <c r="H126" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I124" s="8" t="s">
+      <c r="I126" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J124" s="8"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B125" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C125" s="28" t="s">
+      <c r="J126" s="8"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B127" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="28"/>
-      <c r="G125" s="28"/>
-      <c r="H125" s="27">
+      <c r="C127" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D127" s="31"/>
+      <c r="E127" s="31"/>
+      <c r="F127" s="31"/>
+      <c r="G127" s="31"/>
+      <c r="H127" s="27">
         <v>9</v>
       </c>
-      <c r="I125" s="27" t="s">
+      <c r="I127" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="J125" s="4"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B127" s="22" t="s">
+      <c r="J127" s="4"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B129" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="11"/>
-      <c r="I127" s="11"/>
-      <c r="J127" s="12"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B128" s="13" t="s">
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="12"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B130" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c r="G128" s="14"/>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="15"/>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B129" s="20"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
-      <c r="J129" s="15"/>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B130" s="20"/>
       <c r="C130" s="14"/>
       <c r="D130" s="14"/>
       <c r="E130" s="14"/>
@@ -4068,7 +4064,6 @@
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
       <c r="J132" s="15"/>
-      <c r="K132" s="14"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B133" s="20"/>
@@ -4080,7 +4075,6 @@
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
       <c r="J133" s="15"/>
-      <c r="K133" s="14"/>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B134" s="20"/>
@@ -4179,59 +4173,59 @@
       <c r="K141" s="14"/>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B142" s="21"/>
-      <c r="C142" s="17"/>
-      <c r="D142" s="17"/>
-      <c r="E142" s="17"/>
-      <c r="F142" s="17"/>
-      <c r="G142" s="17"/>
-      <c r="H142" s="17"/>
-      <c r="I142" s="17"/>
-      <c r="J142" s="18"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="14"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="14"/>
+      <c r="J142" s="15"/>
       <c r="K142" s="14"/>
     </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B143" s="20"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14"/>
+      <c r="J143" s="15"/>
+      <c r="K143" s="14"/>
+    </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B144" s="22" t="s">
+      <c r="B144" s="21"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="17"/>
+      <c r="G144" s="17"/>
+      <c r="H144" s="17"/>
+      <c r="I144" s="17"/>
+      <c r="J144" s="18"/>
+      <c r="K144" s="14"/>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B146" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
-      <c r="E144" s="11"/>
-      <c r="F144" s="11"/>
-      <c r="G144" s="11"/>
-      <c r="H144" s="11"/>
-      <c r="I144" s="11"/>
-      <c r="J144" s="12"/>
-      <c r="K144" s="14"/>
-    </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B145" s="13" t="s">
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="11"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="14"/>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B147" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
-      <c r="G145" s="14"/>
-      <c r="H145" s="14"/>
-      <c r="I145" s="14"/>
-      <c r="J145" s="15"/>
-      <c r="K145" s="14"/>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B146" s="20"/>
-      <c r="C146" s="14"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
-      <c r="H146" s="14"/>
-      <c r="I146" s="14"/>
-      <c r="J146" s="15"/>
-      <c r="K146" s="14"/>
-    </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B147" s="20"/>
       <c r="C147" s="14"/>
       <c r="D147" s="14"/>
       <c r="E147" s="14"/>
@@ -4375,28 +4369,44 @@
       <c r="K158" s="14"/>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B159" s="21"/>
-      <c r="C159" s="17"/>
-      <c r="D159" s="17"/>
-      <c r="E159" s="17"/>
-      <c r="F159" s="17"/>
-      <c r="G159" s="17"/>
-      <c r="H159" s="17"/>
-      <c r="I159" s="17"/>
-      <c r="J159" s="18"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="14"/>
+      <c r="F159" s="14"/>
+      <c r="G159" s="14"/>
+      <c r="H159" s="14"/>
+      <c r="I159" s="14"/>
+      <c r="J159" s="15"/>
       <c r="K159" s="14"/>
+    </row>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B160" s="20"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="14"/>
+      <c r="G160" s="14"/>
+      <c r="H160" s="14"/>
+      <c r="I160" s="14"/>
+      <c r="J160" s="15"/>
+      <c r="K160" s="14"/>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B161" s="21"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="17"/>
+      <c r="H161" s="17"/>
+      <c r="I161" s="17"/>
+      <c r="J161" s="18"/>
+      <c r="K161" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C121:G121"/>
-    <mergeCell ref="C122:G122"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="C127:G127"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
@@ -4409,9 +4419,17 @@
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="C126:G126"/>
     <mergeCell ref="C79:G79"/>
     <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C122:G122"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4435,7 +4453,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Document/시스템 기획서/몬스터/DreamCatcher_레드 헷.xlsx
+++ b/Document/시스템 기획서/몬스터/DreamCatcher_레드 헷.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\시스템 기획서\몬스터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\시스템 기획서\몬스터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="122">
   <si>
     <t>드림 캐쳐(가명) 몬스터 문서</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -248,10 +248,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MonsterDamage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MonsterDefance</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -269,10 +265,6 @@
   </si>
   <si>
     <t>몬스터의 이동속도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터의 공격력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -762,10 +754,6 @@
     <t>실수형</t>
   </si>
   <si>
-    <t>SkillAtk 1,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>실수형</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -778,10 +766,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CoolTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  - 스킬2의 공격 거리는 스킬1의 2배로 함.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -919,6 +903,22 @@
   </si>
   <si>
     <t xml:space="preserve">  - 돌진 시간 0.5초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillAtk 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillAtk 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1의 공격력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2의 공격력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1255,7 +1255,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1340,6 +1340,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1347,12 +1356,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1378,13 +1381,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>476248</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>28577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>47627</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1438,13 +1441,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>161923</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1498,13 +1501,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1565,13 +1568,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1622,13 +1625,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1682,13 +1685,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1739,13 +1742,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1796,13 +1799,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1856,13 +1859,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1913,13 +1916,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1970,13 +1973,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2026,13 +2029,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2080,13 +2083,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2137,13 +2140,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2194,13 +2197,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2250,13 +2253,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2304,13 +2307,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2361,13 +2364,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>444088</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>157417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>451263</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>61658</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2772,10 +2775,10 @@
         <v>43671</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -2784,10 +2787,10 @@
         <v>43689</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -2823,7 +2826,7 @@
     </row>
     <row r="15" spans="2:5" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B15" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="31.5" x14ac:dyDescent="0.3">
@@ -2831,42 +2834,42 @@
     </row>
     <row r="17" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B17" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B24" s="25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2878,10 +2881,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M161"/>
+  <dimension ref="B2:M160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2932,13 +2935,13 @@
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
     </row>
@@ -2946,13 +2949,13 @@
       <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
     </row>
@@ -2960,13 +2963,13 @@
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
     </row>
@@ -2985,12 +2988,12 @@
       <c r="B15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
       <c r="G15" s="10" t="s">
         <v>28</v>
       </c>
@@ -3005,14 +3008,14 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
+        <v>119</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="8">
         <v>10</v>
       </c>
@@ -3024,15 +3027,15 @@
       <c r="M16" s="26"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
+      <c r="B17" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="8">
         <v>20</v>
       </c>
@@ -3047,12 +3050,12 @@
       <c r="B18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
+      <c r="C18" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
       <c r="G18" s="8">
         <v>1</v>
       </c>
@@ -3067,14 +3070,14 @@
       <c r="B19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
+      <c r="C19" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
       <c r="G19" s="8">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>33</v>
@@ -3087,17 +3090,17 @@
       <c r="B20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
+      <c r="C20" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
       <c r="G20" s="8">
         <v>10</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I20" s="4"/>
       <c r="L20" s="26"/>
@@ -3107,12 +3110,12 @@
       <c r="B21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
+      <c r="C21" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
       <c r="G21" s="8">
         <v>5</v>
       </c>
@@ -3127,17 +3130,15 @@
       <c r="B22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="8">
-        <v>2</v>
-      </c>
+      <c r="C22" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="8"/>
       <c r="H22" s="8" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="I22" s="4"/>
       <c r="L22" s="26"/>
@@ -3147,179 +3148,168 @@
       <c r="B23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="8">
-        <v>5</v>
-      </c>
+      <c r="C23" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="8"/>
       <c r="H23" s="8" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="I23" s="4"/>
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
-        <v>58</v>
+      <c r="B24" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="8">
-        <v>7</v>
-      </c>
-      <c r="H24" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="27">
+        <v>9</v>
+      </c>
+      <c r="H24" s="27" t="s">
         <v>33</v>
       </c>
       <c r="I24" s="4"/>
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="27">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>9</v>
+      <c r="B27" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
-        <v>13</v>
+      <c r="B42" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>117</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="B49" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="12"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="15"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="13"/>
@@ -3342,6 +3332,7 @@
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="15"/>
+      <c r="K52" s="14"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="13"/>
@@ -3476,113 +3467,120 @@
       <c r="K63" s="14"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="13"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="15"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="18"/>
       <c r="K64" s="14"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="16"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="14"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="1" t="s">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B75" s="25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B74" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B78" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="32" t="s">
+      <c r="C78" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="10" t="s">
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I79" s="10" t="s">
+      <c r="I78" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J79" s="10" t="s">
+      <c r="J78" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B79" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="8">
+        <v>10</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J79" s="8"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C80" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
+        <v>35</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
       <c r="H80" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I80" s="8" t="s">
         <v>33</v>
@@ -3591,54 +3589,46 @@
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C81" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="31"/>
-      <c r="G81" s="31"/>
+        <v>97</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
       <c r="H81" s="8">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="J81" s="8"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B82" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C82" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I82" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J82" s="8"/>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B85" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="12"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B86" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="12"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="15"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B87" s="20"/>
@@ -3661,6 +3651,10 @@
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
       <c r="J88" s="15"/>
+      <c r="K88" s="14"/>
+      <c r="M88" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B89" s="20"/>
@@ -3673,9 +3667,6 @@
       <c r="I89" s="14"/>
       <c r="J89" s="15"/>
       <c r="K89" s="14"/>
-      <c r="M89" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B90" s="20"/>
@@ -3798,242 +3789,241 @@
       <c r="K99" s="14"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B100" s="20"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="15"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="18"/>
       <c r="K100" s="14"/>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B101" s="21"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="14"/>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B103" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B104" s="1" t="s">
-        <v>38</v>
+      <c r="B104" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B117" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B116" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="118" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B118" s="25" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B120" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B121" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C121" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I121" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J121" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B122" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C122" s="32" t="s">
-        <v>27</v>
+      <c r="B122" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C122" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="D122" s="32"/>
       <c r="E122" s="32"/>
       <c r="F122" s="32"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I122" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J122" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="G122" s="33"/>
+      <c r="H122" s="8">
+        <v>20</v>
+      </c>
+      <c r="I122" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J122" s="8"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C123" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D123" s="29"/>
-      <c r="E123" s="29"/>
-      <c r="F123" s="29"/>
-      <c r="G123" s="30"/>
+        <v>32</v>
+      </c>
+      <c r="C123" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D123" s="32"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="32"/>
+      <c r="G123" s="33"/>
       <c r="H123" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J123" s="8"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C124" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D124" s="29"/>
-      <c r="E124" s="29"/>
-      <c r="F124" s="29"/>
-      <c r="G124" s="30"/>
+        <v>35</v>
+      </c>
+      <c r="C124" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D124" s="32"/>
+      <c r="E124" s="32"/>
+      <c r="F124" s="32"/>
+      <c r="G124" s="33"/>
       <c r="H124" s="8">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J124" s="8"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C125" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D125" s="29"/>
-      <c r="E125" s="29"/>
-      <c r="F125" s="29"/>
-      <c r="G125" s="30"/>
+        <v>97</v>
+      </c>
+      <c r="C125" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D125" s="32"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="33"/>
       <c r="H125" s="8">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I125" s="8" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="J125" s="8"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C126" s="28" t="s">
-        <v>116</v>
+      <c r="C126" s="29" t="s">
+        <v>100</v>
       </c>
       <c r="D126" s="29"/>
       <c r="E126" s="29"/>
       <c r="F126" s="29"/>
-      <c r="G126" s="30"/>
-      <c r="H126" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I126" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J126" s="8"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B127" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C127" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="D127" s="31"/>
-      <c r="E127" s="31"/>
-      <c r="F127" s="31"/>
-      <c r="G127" s="31"/>
-      <c r="H127" s="27">
+      <c r="G126" s="29"/>
+      <c r="H126" s="27">
         <v>9</v>
       </c>
-      <c r="I127" s="27" t="s">
+      <c r="I126" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="J127" s="4"/>
+      <c r="J126" s="4"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B128" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="12"/>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B129" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="11"/>
-      <c r="I129" s="11"/>
-      <c r="J129" s="12"/>
+      <c r="B129" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="15"/>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B130" s="13" t="s">
-        <v>23</v>
-      </c>
+      <c r="B130" s="20"/>
       <c r="C130" s="14"/>
       <c r="D130" s="14"/>
       <c r="E130" s="14"/>
@@ -4075,6 +4065,7 @@
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
       <c r="J133" s="15"/>
+      <c r="K133" s="14"/>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B134" s="20"/>
@@ -4185,47 +4176,47 @@
       <c r="K142" s="14"/>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B143" s="20"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
-      <c r="J143" s="15"/>
+      <c r="B143" s="21"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
+      <c r="H143" s="17"/>
+      <c r="I143" s="17"/>
+      <c r="J143" s="18"/>
       <c r="K143" s="14"/>
     </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B144" s="21"/>
-      <c r="C144" s="17"/>
-      <c r="D144" s="17"/>
-      <c r="E144" s="17"/>
-      <c r="F144" s="17"/>
-      <c r="G144" s="17"/>
-      <c r="H144" s="17"/>
-      <c r="I144" s="17"/>
-      <c r="J144" s="18"/>
-      <c r="K144" s="14"/>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B145" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="11"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="14"/>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B146" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
-      <c r="E146" s="11"/>
-      <c r="F146" s="11"/>
-      <c r="G146" s="11"/>
-      <c r="H146" s="11"/>
-      <c r="I146" s="11"/>
-      <c r="J146" s="12"/>
+      <c r="B146" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="14"/>
+      <c r="H146" s="14"/>
+      <c r="I146" s="14"/>
+      <c r="J146" s="15"/>
       <c r="K146" s="14"/>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B147" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="B147" s="20"/>
       <c r="C147" s="14"/>
       <c r="D147" s="14"/>
       <c r="E147" s="14"/>
@@ -4381,33 +4372,29 @@
       <c r="K159" s="14"/>
     </row>
     <row r="160" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B160" s="20"/>
-      <c r="C160" s="14"/>
-      <c r="D160" s="14"/>
-      <c r="E160" s="14"/>
-      <c r="F160" s="14"/>
-      <c r="G160" s="14"/>
-      <c r="H160" s="14"/>
-      <c r="I160" s="14"/>
-      <c r="J160" s="15"/>
+      <c r="B160" s="21"/>
+      <c r="C160" s="17"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="17"/>
+      <c r="G160" s="17"/>
+      <c r="H160" s="17"/>
+      <c r="I160" s="17"/>
+      <c r="J160" s="18"/>
       <c r="K160" s="14"/>
     </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B161" s="21"/>
-      <c r="C161" s="17"/>
-      <c r="D161" s="17"/>
-      <c r="E161" s="17"/>
-      <c r="F161" s="17"/>
-      <c r="G161" s="17"/>
-      <c r="H161" s="17"/>
-      <c r="I161" s="17"/>
-      <c r="J161" s="18"/>
-      <c r="K161" s="14"/>
-    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C127:G127"/>
+  <mergeCells count="23">
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="C80:G80"/>
     <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
@@ -4418,18 +4405,9 @@
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="C78:G78"/>
     <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="C124:G124"/>
-    <mergeCell ref="C125:G125"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C122:G122"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4453,7 +4431,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Document/시스템 기획서/몬스터/DreamCatcher_레드 헷.xlsx
+++ b/Document/시스템 기획서/몬스터/DreamCatcher_레드 헷.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="123">
   <si>
     <t>드림 캐쳐(가명) 몬스터 문서</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -919,6 +919,10 @@
   </si>
   <si>
     <t>스킬2의 공격력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 돌진은 돌진전 인식한 유저의 위치에 사용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1343,12 +1347,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1356,6 +1354,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1441,13 +1445,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>161923</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1916,13 +1920,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1973,13 +1977,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2029,13 +2033,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2083,13 +2087,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2140,13 +2144,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2197,13 +2201,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2253,13 +2257,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2307,13 +2311,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2881,10 +2885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M160"/>
+  <dimension ref="B2:M161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M121" sqref="M121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2935,13 +2939,13 @@
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
     </row>
@@ -2949,13 +2953,13 @@
       <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
     </row>
@@ -2963,13 +2967,13 @@
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
     </row>
@@ -2988,12 +2992,12 @@
       <c r="B15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="10" t="s">
         <v>28</v>
       </c>
@@ -3010,12 +3014,12 @@
       <c r="B16" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="8">
         <v>10</v>
       </c>
@@ -3030,12 +3034,12 @@
       <c r="B17" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="8">
         <v>20</v>
       </c>
@@ -3050,12 +3054,12 @@
       <c r="B18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="8">
         <v>1</v>
       </c>
@@ -3070,12 +3074,12 @@
       <c r="B19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="8">
         <v>350</v>
       </c>
@@ -3090,12 +3094,12 @@
       <c r="B20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="8">
         <v>10</v>
       </c>
@@ -3110,12 +3114,12 @@
       <c r="B21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
       <c r="G21" s="8">
         <v>5</v>
       </c>
@@ -3130,12 +3134,12 @@
       <c r="B22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8" t="s">
         <v>80</v>
@@ -3148,12 +3152,12 @@
       <c r="B23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8" t="s">
         <v>33</v>
@@ -3166,12 +3170,12 @@
       <c r="B24" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
       <c r="G24" s="27">
         <v>9</v>
       </c>
@@ -3532,13 +3536,13 @@
       <c r="B78" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="30" t="s">
+      <c r="C78" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
       <c r="H78" s="10" t="s">
         <v>28</v>
       </c>
@@ -3553,13 +3557,13 @@
       <c r="B79" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
       <c r="H79" s="8">
         <v>10</v>
       </c>
@@ -3572,13 +3576,13 @@
       <c r="B80" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="C80" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
       <c r="H80" s="8">
         <v>1</v>
       </c>
@@ -3591,13 +3595,13 @@
       <c r="B81" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
       <c r="H81" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -3865,165 +3869,159 @@
         <v>109</v>
       </c>
     </row>
-    <row r="117" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B117" s="25" t="s">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B118" s="25" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B118" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B121" s="9" t="s">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B122" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C121" s="30" t="s">
+      <c r="C122" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D121" s="30"/>
-      <c r="E121" s="30"/>
-      <c r="F121" s="30"/>
-      <c r="G121" s="30"/>
-      <c r="H121" s="10" t="s">
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="33"/>
+      <c r="G122" s="33"/>
+      <c r="H122" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I121" s="10" t="s">
+      <c r="I122" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J121" s="10" t="s">
+      <c r="J122" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B122" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C122" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D122" s="32"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="32"/>
-      <c r="G122" s="33"/>
-      <c r="H122" s="8">
-        <v>20</v>
-      </c>
-      <c r="I122" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J122" s="8"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C123" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D123" s="32"/>
-      <c r="E123" s="32"/>
-      <c r="F123" s="32"/>
-      <c r="G123" s="33"/>
+        <v>31</v>
+      </c>
+      <c r="C123" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="31"/>
       <c r="H123" s="8">
         <v>20</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J123" s="8"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C124" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D124" s="32"/>
-      <c r="E124" s="32"/>
-      <c r="F124" s="32"/>
-      <c r="G124" s="33"/>
+        <v>32</v>
+      </c>
+      <c r="C124" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="30"/>
+      <c r="G124" s="31"/>
       <c r="H124" s="8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J124" s="8"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C125" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D125" s="30"/>
+      <c r="E125" s="30"/>
+      <c r="F125" s="30"/>
+      <c r="G125" s="31"/>
+      <c r="H125" s="8">
+        <v>1</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J125" s="8"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B126" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C125" s="31" t="s">
+      <c r="C126" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="D125" s="32"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="32"/>
-      <c r="G125" s="33"/>
-      <c r="H125" s="8">
+      <c r="D126" s="30"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="30"/>
+      <c r="G126" s="31"/>
+      <c r="H126" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I125" s="8" t="s">
+      <c r="I126" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J125" s="8"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B126" s="27" t="s">
+      <c r="J126" s="8"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B127" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C126" s="29" t="s">
+      <c r="C127" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="D126" s="29"/>
-      <c r="E126" s="29"/>
-      <c r="F126" s="29"/>
-      <c r="G126" s="29"/>
-      <c r="H126" s="27">
+      <c r="D127" s="32"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="32"/>
+      <c r="H127" s="27">
         <v>9</v>
       </c>
-      <c r="I126" s="27" t="s">
+      <c r="I127" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="J126" s="4"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B128" s="22" t="s">
+      <c r="J127" s="4"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B129" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="11"/>
-      <c r="I128" s="11"/>
-      <c r="J128" s="12"/>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B129" s="13" t="s">
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="12"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B130" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
-      <c r="J129" s="15"/>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B130" s="20"/>
       <c r="C130" s="14"/>
       <c r="D130" s="14"/>
       <c r="E130" s="14"/>
@@ -4065,7 +4063,6 @@
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
       <c r="J133" s="15"/>
-      <c r="K133" s="14"/>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B134" s="20"/>
@@ -4176,47 +4173,47 @@
       <c r="K142" s="14"/>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B143" s="21"/>
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="17"/>
-      <c r="F143" s="17"/>
-      <c r="G143" s="17"/>
-      <c r="H143" s="17"/>
-      <c r="I143" s="17"/>
-      <c r="J143" s="18"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14"/>
+      <c r="J143" s="15"/>
       <c r="K143" s="14"/>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B145" s="22" t="s">
+    <row r="144" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B144" s="21"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="17"/>
+      <c r="G144" s="17"/>
+      <c r="H144" s="17"/>
+      <c r="I144" s="17"/>
+      <c r="J144" s="18"/>
+      <c r="K144" s="14"/>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B146" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="11"/>
-      <c r="F145" s="11"/>
-      <c r="G145" s="11"/>
-      <c r="H145" s="11"/>
-      <c r="I145" s="11"/>
-      <c r="J145" s="12"/>
-      <c r="K145" s="14"/>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B146" s="13" t="s">
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="11"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="14"/>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B147" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C146" s="14"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
-      <c r="H146" s="14"/>
-      <c r="I146" s="14"/>
-      <c r="J146" s="15"/>
-      <c r="K146" s="14"/>
-    </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B147" s="20"/>
       <c r="C147" s="14"/>
       <c r="D147" s="14"/>
       <c r="E147" s="14"/>
@@ -4372,28 +4369,32 @@
       <c r="K159" s="14"/>
     </row>
     <row r="160" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B160" s="21"/>
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="17"/>
-      <c r="F160" s="17"/>
-      <c r="G160" s="17"/>
-      <c r="H160" s="17"/>
-      <c r="I160" s="17"/>
-      <c r="J160" s="18"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="14"/>
+      <c r="G160" s="14"/>
+      <c r="H160" s="14"/>
+      <c r="I160" s="14"/>
+      <c r="J160" s="15"/>
       <c r="K160" s="14"/>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B161" s="21"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="17"/>
+      <c r="H161" s="17"/>
+      <c r="I161" s="17"/>
+      <c r="J161" s="18"/>
+      <c r="K161" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C122:G122"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="C124:G124"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C121:G121"/>
-    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="C127:G127"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
@@ -4405,9 +4406,17 @@
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="C126:G126"/>
     <mergeCell ref="C78:G78"/>
     <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C122:G122"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
